--- a/mood_asana_details.xlsx
+++ b/mood_asana_details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parth\OneDrive\Desktop\internship yoga sentiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenAI SU\Technical Writing\Internship Yoga Sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E5E9CF-0962-4973-8BC2-CE026C77B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDD4D65-ED99-4218-AA7A-6DC9036BE90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="180" windowWidth="16800" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="189">
   <si>
     <t>Mood_Issue</t>
   </si>
@@ -121,12 +121,6 @@
     <t>Shame, Embarrassment, Humiliation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Child’s Pose (Balasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DownwardFacing Dog (Adho Mukha Svanasana)</t>
-  </si>
-  <si>
     <t>Camel Pose (Ustrasana)</t>
   </si>
   <si>
@@ -142,51 +136,6 @@
     <t>Revolved Triangle Pose (Parivrtta Trikonasana)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bridge Pose (Setu Bandhasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cobra Pose (Bhujangasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warrior III (Virabhadrasana III)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supine Spinal Twist (Supta Matsyendrasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lotus Pose (Padmasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CatCow Pose (MarjaryasanaBitilasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Locust Pose (Salabhasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fish Pose (Matsyasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mountain Pose (Tadasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Half Moon Pose (Ardha Chandrasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UpwardFacing Dog (Urdhva Mukha Svanasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sphinx Pose (Salamba Bhujangasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Revolved Chair Pose (Parivrtta Utkatasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WindRelieving Pose (Pavanamuktasana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HeartOpening Poses (Ustrasana, Bhujangasana)</t>
-  </si>
-  <si>
     <t>1. Kneel on the mat with big toes touching and knees spread apart.2. Sit back on your heels and extend your arms forward, lowering your torso between your thighs.3. Rest your forehead on the mat and breathe deeply.</t>
   </si>
   <si>
@@ -590,6 +539,54 @@
   </si>
   <si>
     <t>Individuals experiencing shame, embarrassment, or humiliation feel intense self-consciousness, inadequacy, and a desire to hide. These emotions can lead to social withdrawal, decreased self-esteem, and a reluctance to engage in activities, impacting personal and professional life.</t>
+  </si>
+  <si>
+    <t>Child Pose (Balasana)</t>
+  </si>
+  <si>
+    <t>DownwardFacing Dog (Adho Mukha Svanasana)</t>
+  </si>
+  <si>
+    <t>Bridge Pose (Setu Bandhasana)</t>
+  </si>
+  <si>
+    <t>Cobra Pose (Bhujangasana)</t>
+  </si>
+  <si>
+    <t>Warrior III (Virabhadrasana III)</t>
+  </si>
+  <si>
+    <t>Supine Spinal Twist (Supta Matsyendrasana)</t>
+  </si>
+  <si>
+    <t>Lotus Pose (Padmasana)</t>
+  </si>
+  <si>
+    <t>CatCow Pose (MarjaryasanaBitilasana)</t>
+  </si>
+  <si>
+    <t>Locust Pose (Salabhasana)</t>
+  </si>
+  <si>
+    <t>Fish Pose (Matsyasana)</t>
+  </si>
+  <si>
+    <t>Mountain Pose (Tadasana)</t>
+  </si>
+  <si>
+    <t>Half Moon Pose (Ardha Chandrasana)</t>
+  </si>
+  <si>
+    <t>Sphinx Pose (Salamba Bhujangasana)</t>
+  </si>
+  <si>
+    <t>Revolved Chair Pose (Parivrtta Utkatasana)</t>
+  </si>
+  <si>
+    <t>WindRelieving Pose (Pavanamuktasana)</t>
+  </si>
+  <si>
+    <t>HeartOpening Poses (Ustrasana, Bhujangasana)</t>
   </si>
 </sst>
 </file>
@@ -994,7 +991,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1036,28 +1033,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1065,28 +1062,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1094,28 +1091,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1123,28 +1120,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1152,28 +1149,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1181,28 +1178,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1210,28 +1207,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1239,28 +1236,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1268,28 +1265,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1297,28 +1294,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1326,28 +1323,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1355,28 +1352,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1384,28 +1381,28 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1413,28 +1410,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
         <v>87</v>
       </c>
-      <c r="G15" t="s">
-        <v>104</v>
-      </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1442,28 +1439,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1471,28 +1468,28 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="G17" t="s">
-        <v>106</v>
-      </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1500,28 +1497,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1529,28 +1526,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1558,28 +1555,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1587,28 +1584,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1616,28 +1613,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1645,28 +1642,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1674,28 +1671,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
         <v>187</v>
       </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="I24" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1703,28 +1700,28 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" t="s">
         <v>188</v>
       </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1732,28 +1729,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
